--- a/biology/Médecine/Collège_royal_de_chirurgie/Collège_royal_de_chirurgie.xlsx
+++ b/biology/Médecine/Collège_royal_de_chirurgie/Collège_royal_de_chirurgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_royal_de_chirurgie</t>
+          <t>Collège_royal_de_chirurgie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Collège royal de chirurgie d'Angleterre (The Royal College of Surgeons of England) est un ordre professionnel indépendant destiné à promouvoir et à faire avancer les standards des soins aux patients en chirurgie et incluant l'odontologie, en Angleterre et au Pays de Galles. Le collège est situé à Lincoln's Inn Fields, le plus grand square de Londres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_royal_de_chirurgie</t>
+          <t>Collège_royal_de_chirurgie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Compagnie des Chirurgiens (Company of Surgeons) naît de la scission d'avec la profession des barbiers en 1745, les barbiers-chirurgiens étant une seule et même profession depuis 1540[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Compagnie des Chirurgiens (Company of Surgeons) naît de la scission d'avec la profession des barbiers en 1745, les barbiers-chirurgiens étant une seule et même profession depuis 1540.
 </t>
         </is>
       </c>
